--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Itgb2</t>
   </si>
   <si>
     <t>Thy1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="H2">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="I2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="J2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.75490598259295</v>
+        <v>3.389838666666666</v>
       </c>
       <c r="N2">
-        <v>2.75490598259295</v>
+        <v>10.169516</v>
       </c>
       <c r="O2">
-        <v>0.02821565410429259</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="P2">
-        <v>0.02821565410429259</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="Q2">
-        <v>362.9616956250462</v>
+        <v>0.9585729284288887</v>
       </c>
       <c r="R2">
-        <v>362.9616956250462</v>
+        <v>8.627156355859999</v>
       </c>
       <c r="S2">
-        <v>0.01385355999513354</v>
+        <v>3.435903170968462E-05</v>
       </c>
       <c r="T2">
-        <v>0.01385355999513354</v>
+        <v>3.43590317096846E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="H3">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="I3">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="J3">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.303988237933</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N3">
-        <v>84.303988237933</v>
+        <v>253.51133</v>
       </c>
       <c r="O3">
-        <v>0.8634386025380856</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="P3">
-        <v>0.8634386025380856</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="Q3">
-        <v>11107.1371263254</v>
+        <v>23.89583712617222</v>
       </c>
       <c r="R3">
-        <v>11107.1371263254</v>
+        <v>215.06253413555</v>
       </c>
       <c r="S3">
-        <v>0.423938372584311</v>
+        <v>0.0008565209815525459</v>
       </c>
       <c r="T3">
-        <v>0.423938372584311</v>
+        <v>0.0008565209815525458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,72 +649,72 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="H4">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="I4">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="J4">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>10.5786077282179</v>
+        <v>0.1070423333333333</v>
       </c>
       <c r="N4">
-        <v>10.5786077282179</v>
+        <v>0.321127</v>
       </c>
       <c r="O4">
-        <v>0.1083457433576218</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="P4">
-        <v>0.1083457433576218</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="Q4">
-        <v>1393.742444441709</v>
+        <v>0.03026925261611111</v>
       </c>
       <c r="R4">
-        <v>1393.742444441709</v>
+        <v>0.272423273545</v>
       </c>
       <c r="S4">
-        <v>0.0531965075228862</v>
+        <v>1.084969311797719E-06</v>
       </c>
       <c r="T4">
-        <v>0.0531965075228862</v>
+        <v>1.084969311797719E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>136.587322373059</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="H5">
-        <v>136.587322373059</v>
+        <v>0.848335</v>
       </c>
       <c r="I5">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="J5">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.75490598259295</v>
+        <v>11.878781</v>
       </c>
       <c r="N5">
-        <v>2.75490598259295</v>
+        <v>35.636343</v>
       </c>
       <c r="O5">
-        <v>0.02821565410429259</v>
+        <v>0.1189311950344829</v>
       </c>
       <c r="P5">
-        <v>0.02821565410429259</v>
+        <v>0.1189311950344828</v>
       </c>
       <c r="Q5">
-        <v>376.2852315518921</v>
+        <v>3.359061893211667</v>
       </c>
       <c r="R5">
-        <v>376.2852315518921</v>
+        <v>30.231557038905</v>
       </c>
       <c r="S5">
-        <v>0.01436209410915905</v>
+        <v>0.0001204020170826416</v>
       </c>
       <c r="T5">
-        <v>0.01436209410915905</v>
+        <v>0.0001204020170826416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>136.587322373059</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="H6">
-        <v>136.587322373059</v>
+        <v>0.093691</v>
       </c>
       <c r="I6">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="J6">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.303988237933</v>
+        <v>3.389838666666666</v>
       </c>
       <c r="N6">
-        <v>84.303988237933</v>
+        <v>10.169516</v>
       </c>
       <c r="O6">
-        <v>0.8634386025380856</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="P6">
-        <v>0.8634386025380856</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="Q6">
-        <v>11514.85601878913</v>
+        <v>0.1058657915062222</v>
       </c>
       <c r="R6">
-        <v>11514.85601878913</v>
+        <v>0.952792123556</v>
       </c>
       <c r="S6">
-        <v>0.4395002299537747</v>
+        <v>3.794647208840919E-06</v>
       </c>
       <c r="T6">
-        <v>0.4395002299537747</v>
+        <v>3.794647208840918E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.093691</v>
+      </c>
+      <c r="I7">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="J7">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N7">
+        <v>253.51133</v>
+      </c>
+      <c r="O7">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="P7">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="Q7">
+        <v>2.639081113225556</v>
+      </c>
+      <c r="R7">
+        <v>23.75173001903</v>
+      </c>
+      <c r="S7">
+        <v>9.459506831928375E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.459506831928374E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.093691</v>
+      </c>
+      <c r="I8">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="J8">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1070423333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.321127</v>
+      </c>
+      <c r="O8">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="P8">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="Q8">
+        <v>0.003342967750777778</v>
+      </c>
+      <c r="R8">
+        <v>0.030086709757</v>
+      </c>
+      <c r="S8">
+        <v>1.198251395871208E-07</v>
+      </c>
+      <c r="T8">
+        <v>1.198251395871207E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.093691</v>
+      </c>
+      <c r="I9">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="J9">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.878781</v>
+      </c>
+      <c r="N9">
+        <v>35.636343</v>
+      </c>
+      <c r="O9">
+        <v>0.1189311950344829</v>
+      </c>
+      <c r="P9">
+        <v>0.1189311950344828</v>
+      </c>
+      <c r="Q9">
+        <v>0.3709782902236667</v>
+      </c>
+      <c r="R9">
+        <v>3.338804612013</v>
+      </c>
+      <c r="S9">
+        <v>1.329732403176785E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.329732403176785E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="H10">
+        <v>399.68039</v>
+      </c>
+      <c r="I10">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="J10">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.389838666666666</v>
+      </c>
+      <c r="N10">
+        <v>10.169516</v>
+      </c>
+      <c r="O10">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="P10">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="Q10">
+        <v>451.6173467768044</v>
+      </c>
+      <c r="R10">
+        <v>4064.55612099124</v>
+      </c>
+      <c r="S10">
+        <v>0.01618774563556745</v>
+      </c>
+      <c r="T10">
+        <v>0.01618774563556745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="H11">
+        <v>399.68039</v>
+      </c>
+      <c r="I11">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="J11">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N11">
+        <v>253.51133</v>
+      </c>
+      <c r="O11">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="P11">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="Q11">
+        <v>11258.16747153541</v>
+      </c>
+      <c r="R11">
+        <v>101323.5072438187</v>
+      </c>
+      <c r="S11">
+        <v>0.4035370931885451</v>
+      </c>
+      <c r="T11">
+        <v>0.403537093188545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="H12">
+        <v>399.68039</v>
+      </c>
+      <c r="I12">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="J12">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1070423333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.321127</v>
+      </c>
+      <c r="O12">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="P12">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="Q12">
+        <v>14.26090717772556</v>
+      </c>
+      <c r="R12">
+        <v>128.34816459953</v>
+      </c>
+      <c r="S12">
+        <v>0.0005111671187412331</v>
+      </c>
+      <c r="T12">
+        <v>0.0005111671187412329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="H13">
+        <v>399.68039</v>
+      </c>
+      <c r="I13">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="J13">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.878781</v>
+      </c>
+      <c r="N13">
+        <v>35.636343</v>
+      </c>
+      <c r="O13">
+        <v>0.1189311950344829</v>
+      </c>
+      <c r="P13">
+        <v>0.1189311950344828</v>
+      </c>
+      <c r="Q13">
+        <v>1582.571940934864</v>
+      </c>
+      <c r="R13">
+        <v>14243.14746841377</v>
+      </c>
+      <c r="S13">
+        <v>0.05672561564049212</v>
+      </c>
+      <c r="T13">
+        <v>0.05672561564049209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>136.587322373059</v>
-      </c>
-      <c r="H7">
-        <v>136.587322373059</v>
-      </c>
-      <c r="I7">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="J7">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.5786077282179</v>
-      </c>
-      <c r="N7">
-        <v>10.5786077282179</v>
-      </c>
-      <c r="O7">
-        <v>0.1083457433576218</v>
-      </c>
-      <c r="P7">
-        <v>0.1083457433576218</v>
-      </c>
-      <c r="Q7">
-        <v>1444.903704032232</v>
-      </c>
-      <c r="R7">
-        <v>1444.903704032232</v>
-      </c>
-      <c r="S7">
-        <v>0.05514923583473564</v>
-      </c>
-      <c r="T7">
-        <v>0.05514923583473564</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>145.729604</v>
+      </c>
+      <c r="H14">
+        <v>437.188812</v>
+      </c>
+      <c r="I14">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="J14">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.389838666666666</v>
+      </c>
+      <c r="N14">
+        <v>10.169516</v>
+      </c>
+      <c r="O14">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="P14">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="Q14">
+        <v>493.9998465172213</v>
+      </c>
+      <c r="R14">
+        <v>4445.998618654991</v>
+      </c>
+      <c r="S14">
+        <v>0.01770690146537316</v>
+      </c>
+      <c r="T14">
+        <v>0.01770690146537316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>145.729604</v>
+      </c>
+      <c r="H15">
+        <v>437.188812</v>
+      </c>
+      <c r="I15">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="J15">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N15">
+        <v>253.51133</v>
+      </c>
+      <c r="O15">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="P15">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="Q15">
+        <v>12314.70191013777</v>
+      </c>
+      <c r="R15">
+        <v>110832.31719124</v>
+      </c>
+      <c r="S15">
+        <v>0.4414074515115272</v>
+      </c>
+      <c r="T15">
+        <v>0.4414074515115272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>145.729604</v>
+      </c>
+      <c r="H16">
+        <v>437.188812</v>
+      </c>
+      <c r="I16">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="J16">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1070423333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.321127</v>
+      </c>
+      <c r="O16">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="P16">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="Q16">
+        <v>15.59923684790267</v>
+      </c>
+      <c r="R16">
+        <v>140.393131631124</v>
+      </c>
+      <c r="S16">
+        <v>0.0005591381287832074</v>
+      </c>
+      <c r="T16">
+        <v>0.0005591381287832073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>145.729604</v>
+      </c>
+      <c r="H17">
+        <v>437.188812</v>
+      </c>
+      <c r="I17">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="J17">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.878781</v>
+      </c>
+      <c r="N17">
+        <v>35.636343</v>
+      </c>
+      <c r="O17">
+        <v>0.1189311950344829</v>
+      </c>
+      <c r="P17">
+        <v>0.1189311950344828</v>
+      </c>
+      <c r="Q17">
+        <v>1731.090051132724</v>
+      </c>
+      <c r="R17">
+        <v>15579.81046019452</v>
+      </c>
+      <c r="S17">
+        <v>0.06204909005376862</v>
+      </c>
+      <c r="T17">
+        <v>0.0620490900537686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.053525</v>
+      </c>
+      <c r="H18">
+        <v>0.160575</v>
+      </c>
+      <c r="I18">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="J18">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.389838666666666</v>
+      </c>
+      <c r="N18">
+        <v>10.169516</v>
+      </c>
+      <c r="O18">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="P18">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="Q18">
+        <v>0.1814411146333333</v>
+      </c>
+      <c r="R18">
+        <v>1.6329700317</v>
+      </c>
+      <c r="S18">
+        <v>6.503564649322032E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.503564649322032E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.053525</v>
+      </c>
+      <c r="H19">
+        <v>0.160575</v>
+      </c>
+      <c r="I19">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="J19">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N19">
+        <v>253.51133</v>
+      </c>
+      <c r="O19">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="P19">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="Q19">
+        <v>4.523064646083333</v>
+      </c>
+      <c r="R19">
+        <v>40.70758181475</v>
+      </c>
+      <c r="S19">
+        <v>0.0001621244633462017</v>
+      </c>
+      <c r="T19">
+        <v>0.0001621244633462017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.053525</v>
+      </c>
+      <c r="H20">
+        <v>0.160575</v>
+      </c>
+      <c r="I20">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="J20">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1070423333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.321127</v>
+      </c>
+      <c r="O20">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="P20">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="Q20">
+        <v>0.005729440891666666</v>
+      </c>
+      <c r="R20">
+        <v>0.051564968025</v>
+      </c>
+      <c r="S20">
+        <v>2.053657425921584E-07</v>
+      </c>
+      <c r="T20">
+        <v>2.053657425921584E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.053525</v>
+      </c>
+      <c r="H21">
+        <v>0.160575</v>
+      </c>
+      <c r="I21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="J21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.878781</v>
+      </c>
+      <c r="N21">
+        <v>35.636343</v>
+      </c>
+      <c r="O21">
+        <v>0.1189311950344829</v>
+      </c>
+      <c r="P21">
+        <v>0.1189311950344828</v>
+      </c>
+      <c r="Q21">
+        <v>0.635811753025</v>
+      </c>
+      <c r="R21">
+        <v>5.722305777225</v>
+      </c>
+      <c r="S21">
+        <v>2.27899991077171E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.278999910771709E-05</v>
       </c>
     </row>
   </sheetData>
